--- a/public/templates/students_template.xlsx
+++ b/public/templates/students_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Smart Nursing Platform\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8AEE5621-2E13-4464-8397-474D6F087158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA01575A-F9EA-46BD-9D2F-04C68748666F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,35 +33,35 @@
     <t>الجنس</t>
   </si>
   <si>
-    <t>نوع الدراسة</t>
-  </si>
-  <si>
-    <t>تاريخ الميلاد</t>
-  </si>
-  <si>
-    <t>الرقم الجامعي</t>
-  </si>
-  <si>
-    <t>سنة الدراسة</t>
-  </si>
-  <si>
-    <t>برنامج الدراسي عليا</t>
-  </si>
-  <si>
-    <t>رقم الهاتف</t>
-  </si>
-  <si>
-    <t>الاميل</t>
-  </si>
-  <si>
-    <t>ملاحظات</t>
+    <t>تاريخ_الميلاد</t>
+  </si>
+  <si>
+    <t>الرقم_الجامعي</t>
+  </si>
+  <si>
+    <t>نوع_الدراسة</t>
+  </si>
+  <si>
+    <t>سنة_الدراسة</t>
+  </si>
+  <si>
+    <t>البرنامج</t>
+  </si>
+  <si>
+    <t>الهاتف</t>
+  </si>
+  <si>
+    <t>البريد_الإلكتروني</t>
+  </si>
+  <si>
+    <t> ملاحظات</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -69,30 +69,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="14"/>
-      <color theme="5"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -100,71 +86,17 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="عادي" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="1">
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="right" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-  </dxfs>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -178,19 +110,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{917F0C02-6F83-48B3-BC70-A88799FCFB4C}" name="الجدول2" displayName="الجدول2" ref="A1:J39" totalsRowShown="0" headerRowDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{917F0C02-6F83-48B3-BC70-A88799FCFB4C}" name="الجدول2" displayName="الجدول2" ref="A1:J39" totalsRowShown="0">
   <autoFilter ref="A1:J39" xr:uid="{917F0C02-6F83-48B3-BC70-A88799FCFB4C}"/>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{B106418E-24C9-4A82-9872-747E918E0342}" name="الاسم"/>
     <tableColumn id="2" xr3:uid="{1AF778F4-8A7A-4443-A498-236A251432DF}" name="الجنس"/>
-    <tableColumn id="3" xr3:uid="{B674A679-B9C7-4647-9823-068071176D8A}" name="نوع الدراسة"/>
-    <tableColumn id="4" xr3:uid="{676AA8CD-6673-4E59-B423-96C010BC66F0}" name="تاريخ الميلاد"/>
-    <tableColumn id="5" xr3:uid="{6B3B012A-BF0B-447E-B4BA-04BC89A9D9C4}" name="الرقم الجامعي"/>
-    <tableColumn id="6" xr3:uid="{6DA9E245-8FF6-4D70-A212-D04787B0099E}" name="سنة الدراسة"/>
-    <tableColumn id="7" xr3:uid="{A5DC87FE-EDBC-4408-9A99-DE34C226E9CE}" name="برنامج الدراسي عليا"/>
-    <tableColumn id="8" xr3:uid="{5CE0F4DB-5C6B-4204-91AB-356AF1804FDA}" name="رقم الهاتف"/>
-    <tableColumn id="9" xr3:uid="{D87A3A3D-3C50-40C4-B90D-84C21D0F38FF}" name="الاميل"/>
-    <tableColumn id="10" xr3:uid="{4C419B75-BAEC-4EC4-A50A-2C9EABF7FF6D}" name="ملاحظات"/>
+    <tableColumn id="3" xr3:uid="{B674A679-B9C7-4647-9823-068071176D8A}" name="تاريخ_الميلاد"/>
+    <tableColumn id="4" xr3:uid="{676AA8CD-6673-4E59-B423-96C010BC66F0}" name="الرقم_الجامعي"/>
+    <tableColumn id="5" xr3:uid="{6B3B012A-BF0B-447E-B4BA-04BC89A9D9C4}" name="نوع_الدراسة"/>
+    <tableColumn id="6" xr3:uid="{6DA9E245-8FF6-4D70-A212-D04787B0099E}" name="سنة_الدراسة"/>
+    <tableColumn id="7" xr3:uid="{A5DC87FE-EDBC-4408-9A99-DE34C226E9CE}" name="البرنامج"/>
+    <tableColumn id="8" xr3:uid="{5CE0F4DB-5C6B-4204-91AB-356AF1804FDA}" name="الهاتف"/>
+    <tableColumn id="9" xr3:uid="{D87A3A3D-3C50-40C4-B90D-84C21D0F38FF}" name="البريد_الإلكتروني"/>
+    <tableColumn id="10" xr3:uid="{4C419B75-BAEC-4EC4-A50A-2C9EABF7FF6D}" name=" ملاحظات"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -462,7 +394,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="I4" sqref="I4"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -472,41 +404,41 @@
     <col min="3" max="4" width="12.25" customWidth="1"/>
     <col min="5" max="5" width="13" customWidth="1"/>
     <col min="6" max="6" width="12.375" customWidth="1"/>
-    <col min="7" max="7" width="18.25" customWidth="1"/>
+    <col min="7" max="7" width="7.875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11" customWidth="1"/>
     <col min="9" max="9" width="7.125" customWidth="1"/>
     <col min="10" max="10" width="9.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="18" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" t="s">
         <v>9</v>
       </c>
     </row>

--- a/public/templates/students_template.xlsx
+++ b/public/templates/students_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Smart Nursing Platform\public\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA01575A-F9EA-46BD-9D2F-04C68748666F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B49E7321-3377-4984-AD81-2A53F1E204CB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -27,34 +27,34 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>الاسم</t>
-  </si>
-  <si>
-    <t>الجنس</t>
-  </si>
-  <si>
-    <t>تاريخ_الميلاد</t>
-  </si>
-  <si>
-    <t>الرقم_الجامعي</t>
-  </si>
-  <si>
-    <t>نوع_الدراسة</t>
-  </si>
-  <si>
-    <t>سنة_الدراسة</t>
-  </si>
-  <si>
-    <t>البرنامج</t>
-  </si>
-  <si>
-    <t>الهاتف</t>
-  </si>
-  <si>
-    <t>البريد_الإلكتروني</t>
-  </si>
-  <si>
-    <t> ملاحظات</t>
+    <t>name</t>
+  </si>
+  <si>
+    <t>gender</t>
+  </si>
+  <si>
+    <t>birthdate</t>
+  </si>
+  <si>
+    <t>university_number</t>
+  </si>
+  <si>
+    <t>study_type</t>
+  </si>
+  <si>
+    <t>study_year</t>
+  </si>
+  <si>
+    <t>program</t>
+  </si>
+  <si>
+    <t>phone</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>notes</t>
   </si>
 </sst>
 </file>
@@ -111,18 +111,17 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{917F0C02-6F83-48B3-BC70-A88799FCFB4C}" name="الجدول2" displayName="الجدول2" ref="A1:J39" totalsRowShown="0">
-  <autoFilter ref="A1:J39" xr:uid="{917F0C02-6F83-48B3-BC70-A88799FCFB4C}"/>
   <tableColumns count="10">
-    <tableColumn id="1" xr3:uid="{B106418E-24C9-4A82-9872-747E918E0342}" name="الاسم"/>
-    <tableColumn id="2" xr3:uid="{1AF778F4-8A7A-4443-A498-236A251432DF}" name="الجنس"/>
-    <tableColumn id="3" xr3:uid="{B674A679-B9C7-4647-9823-068071176D8A}" name="تاريخ_الميلاد"/>
-    <tableColumn id="4" xr3:uid="{676AA8CD-6673-4E59-B423-96C010BC66F0}" name="الرقم_الجامعي"/>
-    <tableColumn id="5" xr3:uid="{6B3B012A-BF0B-447E-B4BA-04BC89A9D9C4}" name="نوع_الدراسة"/>
-    <tableColumn id="6" xr3:uid="{6DA9E245-8FF6-4D70-A212-D04787B0099E}" name="سنة_الدراسة"/>
-    <tableColumn id="7" xr3:uid="{A5DC87FE-EDBC-4408-9A99-DE34C226E9CE}" name="البرنامج"/>
-    <tableColumn id="8" xr3:uid="{5CE0F4DB-5C6B-4204-91AB-356AF1804FDA}" name="الهاتف"/>
-    <tableColumn id="9" xr3:uid="{D87A3A3D-3C50-40C4-B90D-84C21D0F38FF}" name="البريد_الإلكتروني"/>
-    <tableColumn id="10" xr3:uid="{4C419B75-BAEC-4EC4-A50A-2C9EABF7FF6D}" name=" ملاحظات"/>
+    <tableColumn id="1" xr3:uid="{B106418E-24C9-4A82-9872-747E918E0342}" name="name"/>
+    <tableColumn id="2" xr3:uid="{1AF778F4-8A7A-4443-A498-236A251432DF}" name="gender"/>
+    <tableColumn id="3" xr3:uid="{B674A679-B9C7-4647-9823-068071176D8A}" name="birthdate"/>
+    <tableColumn id="4" xr3:uid="{676AA8CD-6673-4E59-B423-96C010BC66F0}" name="university_number"/>
+    <tableColumn id="5" xr3:uid="{6B3B012A-BF0B-447E-B4BA-04BC89A9D9C4}" name="study_type"/>
+    <tableColumn id="6" xr3:uid="{6DA9E245-8FF6-4D70-A212-D04787B0099E}" name="study_year"/>
+    <tableColumn id="7" xr3:uid="{A5DC87FE-EDBC-4408-9A99-DE34C226E9CE}" name="program"/>
+    <tableColumn id="8" xr3:uid="{5CE0F4DB-5C6B-4204-91AB-356AF1804FDA}" name="phone"/>
+    <tableColumn id="9" xr3:uid="{D87A3A3D-3C50-40C4-B90D-84C21D0F38FF}" name="email"/>
+    <tableColumn id="10" xr3:uid="{4C419B75-BAEC-4EC4-A50A-2C9EABF7FF6D}" name="notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight14" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -394,7 +393,7 @@
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
